--- a/medicine/Enfance/Philippe_Chauveau_(écrivain)/Philippe_Chauveau_(écrivain).xlsx
+++ b/medicine/Enfance/Philippe_Chauveau_(écrivain)/Philippe_Chauveau_(écrivain).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Philippe_Chauveau_(%C3%A9crivain)</t>
+          <t>Philippe_Chauveau_(écrivain)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philippe Chauveau est un écrivain, scénariste et bédéiste québécois né à Ville Saint-Laurent, en 1960.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Philippe_Chauveau_(%C3%A9crivain)</t>
+          <t>Philippe_Chauveau_(écrivain)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il travaille comme éducateur spécialisé auprès des jeunes.
 Il collabore à plusieurs émissions de télévision pour les enfants et les adolescents : Télé-Pirate, Court-Circuit, Les Débrouillards et Le Club des 100 watts. Il participe également à la scénarisation de courts numéros pour l’émission Samedi de rire.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Philippe_Chauveau_(%C3%A9crivain)</t>
+          <t>Philippe_Chauveau_(écrivain)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Série BD Les Aventures de Billy Bob, illustrée par Rémy Simard, éditions Boréal
 série en cours, le tome 12 Les Hommes-Ballounes paraît en février 2015
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Philippe_Chauveau_(%C3%A9crivain)</t>
+          <t>Philippe_Chauveau_(écrivain)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1988
 Prix Raymond-Beauchemin, Robots et Robots, inc.
